--- a/www/ig/nos/ValueSet-JDV-J70-Equipement-Santefr.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J70-Equipement-Santefr.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.3.69</t>
+    <t>urn:oid:1.2.250.1.213.3.3.69</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
